--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N2">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O2">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P2">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q2">
-        <v>50.07520577998843</v>
+        <v>9.034657372241334</v>
       </c>
       <c r="R2">
-        <v>50.07520577998843</v>
+        <v>81.31191635017201</v>
       </c>
       <c r="S2">
-        <v>0.003191430297777659</v>
+        <v>0.0004732108615402071</v>
       </c>
       <c r="T2">
-        <v>0.003191430297777659</v>
+        <v>0.000473210861540207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N3">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O3">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P3">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q3">
-        <v>23.06498398494929</v>
+        <v>3.885395760287111</v>
       </c>
       <c r="R3">
-        <v>23.06498398494929</v>
+        <v>34.968561842584</v>
       </c>
       <c r="S3">
-        <v>0.001469994732138286</v>
+        <v>0.0002035064971914929</v>
       </c>
       <c r="T3">
-        <v>0.001469994732138286</v>
+        <v>0.0002035064971914929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N4">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O4">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P4">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q4">
-        <v>14.3975989086974</v>
+        <v>3.583996816695334</v>
       </c>
       <c r="R4">
-        <v>14.3975989086974</v>
+        <v>32.25597135025801</v>
       </c>
       <c r="S4">
-        <v>0.0009175984932413401</v>
+        <v>0.0001877200375740442</v>
       </c>
       <c r="T4">
-        <v>0.0009175984932413401</v>
+        <v>0.0001877200375740442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H5">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N5">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O5">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P5">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q5">
-        <v>14.31472700287853</v>
+        <v>2.418830654280666</v>
       </c>
       <c r="R5">
-        <v>14.31472700287853</v>
+        <v>21.769475888526</v>
       </c>
       <c r="S5">
-        <v>0.0009123168392382207</v>
+        <v>0.0001266917925796292</v>
       </c>
       <c r="T5">
-        <v>0.0009123168392382207</v>
+        <v>0.0001266917925796292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H6">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N6">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O6">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P6">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q6">
-        <v>13.07787281535698</v>
+        <v>2.191993066064</v>
       </c>
       <c r="R6">
-        <v>13.07787281535698</v>
+        <v>19.727937594576</v>
       </c>
       <c r="S6">
-        <v>0.0008334887272713415</v>
+        <v>0.0001148106546319395</v>
       </c>
       <c r="T6">
-        <v>0.0008334887272713415</v>
+        <v>0.0001148106546319394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H7">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N7">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O7">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P7">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q7">
-        <v>7.571076034834601</v>
+        <v>1.370488436301778</v>
       </c>
       <c r="R7">
-        <v>7.571076034834601</v>
+        <v>12.334395926716</v>
       </c>
       <c r="S7">
-        <v>0.0004825254548231049</v>
+        <v>7.178246910235258E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004825254548231049</v>
+        <v>7.178246910235257E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H8">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N8">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O8">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P8">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q8">
-        <v>2671.714534541614</v>
+        <v>60.55074841687668</v>
       </c>
       <c r="R8">
-        <v>2671.714534541614</v>
+        <v>544.9567357518902</v>
       </c>
       <c r="S8">
-        <v>0.170275699914478</v>
+        <v>0.003171484057966681</v>
       </c>
       <c r="T8">
-        <v>0.170275699914478</v>
+        <v>0.003171484057966681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H9">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N9">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O9">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P9">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q9">
-        <v>1230.610079213794</v>
+        <v>26.04012653584222</v>
       </c>
       <c r="R9">
-        <v>1230.610079213794</v>
+        <v>234.36113882258</v>
       </c>
       <c r="S9">
-        <v>0.07843015780721917</v>
+        <v>0.001363911237021811</v>
       </c>
       <c r="T9">
-        <v>0.07843015780721917</v>
+        <v>0.001363911237021811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H10">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N10">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O10">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P10">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q10">
-        <v>768.1700687536586</v>
+        <v>24.02013497948167</v>
       </c>
       <c r="R10">
-        <v>768.1700687536586</v>
+        <v>216.181214815335</v>
       </c>
       <c r="S10">
-        <v>0.04895758675536171</v>
+        <v>0.001258109555197525</v>
       </c>
       <c r="T10">
-        <v>0.04895758675536171</v>
+        <v>0.001258109555197525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H11">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N11">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O11">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P11">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q11">
-        <v>763.748517771837</v>
+        <v>16.21113013763833</v>
       </c>
       <c r="R11">
-        <v>763.748517771837</v>
+        <v>145.900171238745</v>
       </c>
       <c r="S11">
-        <v>0.04867578917616548</v>
+        <v>0.0008490950506371162</v>
       </c>
       <c r="T11">
-        <v>0.04867578917616548</v>
+        <v>0.0008490950506371162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H12">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N12">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O12">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P12">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q12">
-        <v>697.7573499186523</v>
+        <v>14.69085270268</v>
       </c>
       <c r="R12">
-        <v>697.7573499186523</v>
+        <v>132.21767432412</v>
       </c>
       <c r="S12">
-        <v>0.04446999093346411</v>
+        <v>0.0007694670398409199</v>
       </c>
       <c r="T12">
-        <v>0.04446999093346411</v>
+        <v>0.0007694670398409198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H13">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N13">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O13">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P13">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q13">
-        <v>403.9474939605923</v>
+        <v>9.185085509685557</v>
       </c>
       <c r="R13">
-        <v>403.9474939605923</v>
+        <v>82.66576958717</v>
       </c>
       <c r="S13">
-        <v>0.02574468244027435</v>
+        <v>0.0004810898795911384</v>
       </c>
       <c r="T13">
-        <v>0.02574468244027435</v>
+        <v>0.0004810898795911383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H14">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I14">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J14">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N14">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O14">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P14">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q14">
-        <v>1739.944707677482</v>
+        <v>3339.779792904486</v>
       </c>
       <c r="R14">
-        <v>1739.944707677482</v>
+        <v>30058.01813614038</v>
       </c>
       <c r="S14">
-        <v>0.1108914515686109</v>
+        <v>0.1749286119040542</v>
       </c>
       <c r="T14">
-        <v>0.1108914515686109</v>
+        <v>0.1749286119040542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H15">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I15">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J15">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N15">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O15">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P15">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q15">
-        <v>801.4304922400595</v>
+        <v>1436.287588228092</v>
       </c>
       <c r="R15">
-        <v>801.4304922400595</v>
+        <v>12926.58829405283</v>
       </c>
       <c r="S15">
-        <v>0.05107736482872184</v>
+        <v>0.07522885030849914</v>
       </c>
       <c r="T15">
-        <v>0.05107736482872184</v>
+        <v>0.07522885030849914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H16">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I16">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J16">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N16">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O16">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P16">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q16">
-        <v>500.2680594966677</v>
+        <v>1324.871509019229</v>
       </c>
       <c r="R16">
-        <v>500.2680594966677</v>
+        <v>11923.84358117306</v>
       </c>
       <c r="S16">
-        <v>0.03188345643755976</v>
+        <v>0.06939317811202511</v>
       </c>
       <c r="T16">
-        <v>0.03188345643755976</v>
+        <v>0.06939317811202511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H17">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I17">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J17">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N17">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O17">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P17">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q17">
-        <v>497.388539948047</v>
+        <v>894.1525293969629</v>
       </c>
       <c r="R17">
-        <v>497.388539948047</v>
+        <v>8047.372764572667</v>
       </c>
       <c r="S17">
-        <v>0.0316999367537688</v>
+        <v>0.04683328557476032</v>
       </c>
       <c r="T17">
-        <v>0.0316999367537688</v>
+        <v>0.04683328557476033</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H18">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I18">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J18">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N18">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O18">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P18">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q18">
-        <v>454.41202364171</v>
+        <v>810.299034772488</v>
       </c>
       <c r="R18">
-        <v>454.41202364171</v>
+        <v>7292.691312952392</v>
       </c>
       <c r="S18">
-        <v>0.02896092541878609</v>
+        <v>0.04244126684073269</v>
       </c>
       <c r="T18">
-        <v>0.02896092541878609</v>
+        <v>0.04244126684073269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H19">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I19">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J19">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N19">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O19">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P19">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q19">
-        <v>263.0693867961839</v>
+        <v>506.619055641558</v>
       </c>
       <c r="R19">
-        <v>263.0693867961839</v>
+        <v>4559.571500774022</v>
       </c>
       <c r="S19">
-        <v>0.01676613402504775</v>
+        <v>0.02653533276529259</v>
       </c>
       <c r="T19">
-        <v>0.01676613402504775</v>
+        <v>0.02653533276529259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H20">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I20">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J20">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N20">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O20">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P20">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q20">
-        <v>1952.11617126465</v>
+        <v>2049.188590587672</v>
       </c>
       <c r="R20">
-        <v>1952.11617126465</v>
+        <v>18442.69731528905</v>
       </c>
       <c r="S20">
-        <v>0.1244137212561479</v>
+        <v>0.1073309433282682</v>
       </c>
       <c r="T20">
-        <v>0.1244137212561479</v>
+        <v>0.1073309433282682</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H21">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I21">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J21">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N21">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O21">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P21">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q21">
-        <v>899.1581267744533</v>
+        <v>881.262933817584</v>
       </c>
       <c r="R21">
-        <v>899.1581267744533</v>
+        <v>7931.366404358257</v>
       </c>
       <c r="S21">
-        <v>0.05730581519502762</v>
+        <v>0.04615816350009669</v>
       </c>
       <c r="T21">
-        <v>0.05730581519502762</v>
+        <v>0.04615816350009669</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H22">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I22">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J22">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N22">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O22">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P22">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q22">
-        <v>561.2714959282781</v>
+        <v>812.9013733315082</v>
       </c>
       <c r="R22">
-        <v>561.2714959282781</v>
+        <v>7316.112359983574</v>
       </c>
       <c r="S22">
-        <v>0.03577137286773444</v>
+        <v>0.04257757027989982</v>
       </c>
       <c r="T22">
-        <v>0.03577137286773444</v>
+        <v>0.04257757027989982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H23">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I23">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J23">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N23">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O23">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P23">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q23">
-        <v>558.0408434532127</v>
+        <v>548.625141507276</v>
       </c>
       <c r="R23">
-        <v>558.0408434532127</v>
+        <v>4937.626273565485</v>
       </c>
       <c r="S23">
-        <v>0.03556547451884269</v>
+        <v>0.02873549767066266</v>
       </c>
       <c r="T23">
-        <v>0.03556547451884269</v>
+        <v>0.02873549767066266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H24">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I24">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J24">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N24">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O24">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P24">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q24">
-        <v>509.8237063821131</v>
+        <v>497.175155244576</v>
       </c>
       <c r="R24">
-        <v>509.8237063821131</v>
+        <v>4474.576397201185</v>
       </c>
       <c r="S24">
-        <v>0.03249246403942693</v>
+        <v>0.02604068686351369</v>
       </c>
       <c r="T24">
-        <v>0.03249246403942693</v>
+        <v>0.02604068686351369</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.709236</v>
+      </c>
+      <c r="H25">
+        <v>191.127708</v>
+      </c>
+      <c r="I25">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J25">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.637418</v>
+      </c>
+      <c r="O25">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P25">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q25">
+        <v>310.846239264216</v>
+      </c>
+      <c r="R25">
+        <v>2797.616153377944</v>
+      </c>
+      <c r="S25">
+        <v>0.01628128335455196</v>
+      </c>
+      <c r="T25">
+        <v>0.01628128335455196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H26">
+        <v>205.966888</v>
+      </c>
+      <c r="I26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.16470200000001</v>
+      </c>
+      <c r="N26">
+        <v>96.49410600000002</v>
+      </c>
+      <c r="O26">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="P26">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="Q26">
+        <v>2208.287858129126</v>
+      </c>
+      <c r="R26">
+        <v>19874.59072316213</v>
+      </c>
+      <c r="S26">
+        <v>0.1156641316675433</v>
+      </c>
+      <c r="T26">
+        <v>0.1156641316675433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H27">
+        <v>205.966888</v>
+      </c>
+      <c r="I27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.83257733333333</v>
+      </c>
+      <c r="N27">
+        <v>41.497732</v>
+      </c>
+      <c r="O27">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="P27">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="Q27">
+        <v>949.6843021220018</v>
+      </c>
+      <c r="R27">
+        <v>8547.158719098017</v>
+      </c>
+      <c r="S27">
+        <v>0.04974188929168817</v>
+      </c>
+      <c r="T27">
+        <v>0.04974188929168816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H28">
+        <v>205.966888</v>
+      </c>
+      <c r="I28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12.759553</v>
+      </c>
+      <c r="N28">
+        <v>38.278659</v>
+      </c>
+      <c r="O28">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="P28">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="Q28">
+        <v>876.0151412270216</v>
+      </c>
+      <c r="R28">
+        <v>7884.136271043193</v>
+      </c>
+      <c r="S28">
+        <v>0.04588329835019136</v>
+      </c>
+      <c r="T28">
+        <v>0.04588329835019136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H29">
+        <v>205.966888</v>
+      </c>
+      <c r="I29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.611390999999999</v>
+      </c>
+      <c r="N29">
+        <v>25.834173</v>
+      </c>
+      <c r="O29">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="P29">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="Q29">
+        <v>591.2204685404026</v>
+      </c>
+      <c r="R29">
+        <v>5320.984216863624</v>
+      </c>
+      <c r="S29">
+        <v>0.03096652543103607</v>
+      </c>
+      <c r="T29">
+        <v>0.03096652543103607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H30">
+        <v>205.966888</v>
+      </c>
+      <c r="I30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.803816</v>
+      </c>
+      <c r="N30">
+        <v>23.411448</v>
+      </c>
+      <c r="O30">
+        <v>0.09748533538144531</v>
+      </c>
+      <c r="P30">
+        <v>0.0974853353814453</v>
+      </c>
+      <c r="Q30">
+        <v>535.7758986815361</v>
+      </c>
+      <c r="R30">
+        <v>4821.983088133824</v>
+      </c>
+      <c r="S30">
+        <v>0.02806248916384429</v>
+      </c>
+      <c r="T30">
+        <v>0.02806248916384429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="H25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="I25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="J25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.45222152755762</v>
-      </c>
-      <c r="N25">
-        <v>4.45222152755762</v>
-      </c>
-      <c r="O25">
-        <v>0.06180396343901759</v>
-      </c>
-      <c r="P25">
-        <v>0.06180396343901759</v>
-      </c>
-      <c r="Q25">
-        <v>295.1484618238205</v>
-      </c>
-      <c r="R25">
-        <v>295.1484618238205</v>
-      </c>
-      <c r="S25">
-        <v>0.01881062151887239</v>
-      </c>
-      <c r="T25">
-        <v>0.01881062151887239</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H31">
+        <v>205.966888</v>
+      </c>
+      <c r="I31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N31">
+        <v>14.637418</v>
+      </c>
+      <c r="O31">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P31">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q31">
+        <v>334.9803815350205</v>
+      </c>
+      <c r="R31">
+        <v>3014.823433815184</v>
+      </c>
+      <c r="S31">
+        <v>0.0175453643026121</v>
+      </c>
+      <c r="T31">
+        <v>0.0175453643026121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.415529</v>
+      </c>
+      <c r="I32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>32.16470200000001</v>
+      </c>
+      <c r="N32">
+        <v>96.49410600000002</v>
+      </c>
+      <c r="O32">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="P32">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="Q32">
+        <v>4.455122152452668</v>
+      </c>
+      <c r="R32">
+        <v>40.09609937207401</v>
+      </c>
+      <c r="S32">
+        <v>0.0002333472211692716</v>
+      </c>
+      <c r="T32">
+        <v>0.0002333472211692716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.415529</v>
+      </c>
+      <c r="I33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.83257733333333</v>
+      </c>
+      <c r="N33">
+        <v>41.497732</v>
+      </c>
+      <c r="O33">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="P33">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="Q33">
+        <v>1.915945675580889</v>
+      </c>
+      <c r="R33">
+        <v>17.243511080228</v>
+      </c>
+      <c r="S33">
+        <v>0.0001003520406420176</v>
+      </c>
+      <c r="T33">
+        <v>0.0001003520406420176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.415529</v>
+      </c>
+      <c r="I34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>12.759553</v>
+      </c>
+      <c r="N34">
+        <v>38.278659</v>
+      </c>
+      <c r="O34">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="P34">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="Q34">
+        <v>1.767321432845667</v>
+      </c>
+      <c r="R34">
+        <v>15.905892895611</v>
+      </c>
+      <c r="S34">
+        <v>9.256750570585242E-05</v>
+      </c>
+      <c r="T34">
+        <v>9.256750570585239E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.415529</v>
+      </c>
+      <c r="I35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.611390999999999</v>
+      </c>
+      <c r="N35">
+        <v>25.834173</v>
+      </c>
+      <c r="O35">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="P35">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="Q35">
+        <v>1.192760896946333</v>
+      </c>
+      <c r="R35">
+        <v>10.734848072517</v>
+      </c>
+      <c r="S35">
+        <v>6.247358238394605E-05</v>
+      </c>
+      <c r="T35">
+        <v>6.247358238394605E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.415529</v>
+      </c>
+      <c r="I36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.803816</v>
+      </c>
+      <c r="N36">
+        <v>23.411448</v>
+      </c>
+      <c r="O36">
+        <v>0.09748533538144531</v>
+      </c>
+      <c r="P36">
+        <v>0.0974853353814453</v>
+      </c>
+      <c r="Q36">
+        <v>1.080903952888</v>
+      </c>
+      <c r="R36">
+        <v>9.728135575991999</v>
+      </c>
+      <c r="S36">
+        <v>5.661481888177606E-05</v>
+      </c>
+      <c r="T36">
+        <v>5.661481888177604E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.415529</v>
+      </c>
+      <c r="I37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N37">
+        <v>14.637418</v>
+      </c>
+      <c r="O37">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P37">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q37">
+        <v>0.6758079626802223</v>
+      </c>
+      <c r="R37">
+        <v>6.082271664122</v>
+      </c>
+      <c r="S37">
+        <v>3.539698906991352E-05</v>
+      </c>
+      <c r="T37">
+        <v>3.539698906991351E-05</v>
       </c>
     </row>
   </sheetData>
